--- a/python.xlsx
+++ b/python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\とおる\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D4BA0C-8DA4-438B-91E8-D0B164CF0054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA9E05-4298-4BB8-A118-401211E7134F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pythonについて" sheetId="1" r:id="rId1"/>
     <sheet name="1. ライブラリ" sheetId="2" r:id="rId2"/>
     <sheet name="２. ゲームエンジン　pyxelについて" sheetId="3" r:id="rId3"/>
-    <sheet name="３）機械学習について" sheetId="4" r:id="rId4"/>
+    <sheet name="３. 機械学習について" sheetId="4" r:id="rId4"/>
     <sheet name="参考までに" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Pythonについて</t>
     <phoneticPr fontId="1"/>
@@ -276,6 +276,122 @@
     <rPh sb="18" eb="20">
       <t>サンコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pyxelとは、レトロな２Dゲームが作れるPythonライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２. ゲームエンジン　pyxelについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ドット絵も、作成可能</t>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.音楽音楽も、作成可能</t>
+    <rPh sb="2" eb="4">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→　テトリスを今回作ってみました。</t>
+    <rPh sb="7" eb="9">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/banban-git/python/blob/master/src/game/tetris/tetris.py</t>
+  </si>
+  <si>
+    <t>ビット演算処理</t>
+    <rPh sb="3" eb="5">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列を回転させる処理等、結構参考になるのでロジックを理解する価値はあり</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テトリスアルゴリズム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３. 機械学習について</t>
+  </si>
+  <si>
+    <t>機械学習とは、</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実践してみた</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -572,6 +688,98 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8C05AD-562E-4B29-B9F4-AB2D38796A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="24161" t="33952" r="32851" b="12862"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="775608" y="911680"/>
+          <a:ext cx="4531178" cy="2987712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>148636</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>46314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93566DC7-DFFA-440F-A8C5-D787CBD9D3DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694764" y="6342531"/>
+          <a:ext cx="3219048" cy="6019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -885,7 +1093,7 @@
   <dimension ref="C2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
@@ -930,33 +1138,36 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="C2:D65"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="24.75">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.75">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="1:4">
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="1:4">
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="1:4">
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1018,16 +1229,69 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="24.75">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21">
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21">
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21">
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="S24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="T25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="T26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1036,14 +1300,48 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="C2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5">
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/python.xlsx
+++ b/python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA9E05-4298-4BB8-A118-401211E7134F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39A7B02-047C-4230-B762-956BE6819AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pythonについて" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pythonについて</t>
     <phoneticPr fontId="1"/>
@@ -266,19 +266,6 @@
     <t>https://github.com/banban-git/python</t>
   </si>
   <si>
-    <t>githubでソースは公開中なので、参考までに</t>
-    <rPh sb="11" eb="13">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Pyxelとは、レトロな２Dゲームが作れるPythonライブラリ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -392,6 +379,22 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/banban-git/python/blob/master/src/game/tetris/%E4%B8%A6%E3%81%B3%E6%9B%BF%E3%81%88%E3%82%A2%E3%83%AB%E3%82%B4%E3%83%AA%E3%82%BA%E3%83%A0.xlsx</t>
+  </si>
+  <si>
+    <t>参考までに</t>
+  </si>
+  <si>
+    <t>githubでソースは公開中</t>
+    <rPh sb="11" eb="13">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +498,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -523,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -535,6 +554,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -558,22 +579,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
+      <xdr:colOff>33617</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32776</xdr:rowOff>
+      <xdr:colOff>235019</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B8FADA-6943-4274-B5AF-7C114F38FA26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118C3263-260F-4C5C-9D0D-23324AD82C2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -581,15 +602,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="14555" r="3352"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="717178" y="1748118"/>
-          <a:ext cx="5849469" cy="2755805"/>
+          <a:off x="739588" y="1759323"/>
+          <a:ext cx="5849166" cy="2753109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -601,22 +629,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>212911</xdr:colOff>
+      <xdr:colOff>212912</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>67238</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>3582</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>32003</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7A619E-3E36-4840-90D3-5CB178229194}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0220EBCB-4E1C-4E37-9F1C-FAFD82E6BEB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -624,15 +652,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect t="15031"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="683558" y="7026091"/>
-          <a:ext cx="11086200" cy="5020234"/>
+          <a:off x="683559" y="7037294"/>
+          <a:ext cx="9232032" cy="4179794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -644,22 +679,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>129988</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>141995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2035B135-A353-45CE-97DE-04B7B2D2829D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16394B82-1479-4EBE-90EA-CA32490F8BB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -667,15 +702,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="24634" t="22304" r="27818" b="68645"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="750794" y="15945970"/>
-          <a:ext cx="6185647" cy="627530"/>
+          <a:off x="829235" y="15049501"/>
+          <a:ext cx="7772400" cy="791935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,49 +731,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>157428</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8C05AD-562E-4B29-B9F4-AB2D38796A9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="24161" t="33952" r="32851" b="12862"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="775608" y="911680"/>
-          <a:ext cx="4531178" cy="2987712"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -759,7 +758,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -776,6 +775,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>170379</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2FDC8D-3514-4EE7-91A7-94017ED1E256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739588" y="862853"/>
+          <a:ext cx="4372585" cy="2876951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -783,15 +832,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>82418</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1093,7 +1142,7 @@
   <dimension ref="C2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
@@ -1138,9 +1187,9 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
@@ -1149,7 +1198,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75">
@@ -1183,41 +1232,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="51" spans="3:4">
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="D52" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="53" spans="3:4">
-      <c r="D53" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="D54" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="D55" s="5"/>
-    </row>
-    <row r="58" spans="3:4" ht="19.5">
-      <c r="C58" s="6"/>
-    </row>
-    <row r="62" spans="3:4" ht="19.5">
-      <c r="C62" s="6" t="s">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="56" spans="3:4" ht="19.5">
+      <c r="C56" s="6"/>
+    </row>
+    <row r="60" spans="3:4" ht="19.5">
+      <c r="C60" s="6" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="61" spans="3:4">
+      <c r="D61" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="63" spans="3:4">
-      <c r="D63" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D63" r:id="rId1" xr:uid="{25A2E738-E9B4-458D-92A8-8A895E19A310}"/>
+    <hyperlink ref="D61" r:id="rId1" xr:uid="{25A2E738-E9B4-458D-92A8-8A895E19A310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1229,11 +1278,9 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:U26"/>
+  <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
@@ -1243,48 +1290,53 @@
     <row r="2" spans="2:4" ht="24.75">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:21">
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="3:21">
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="3:21">
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:21">
       <c r="S24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="3:21">
       <c r="T25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="3:21">
       <c r="T26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21">
+      <c r="U28" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1313,17 +1365,17 @@
   <sheetData>
     <row r="2" spans="3:5">
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="3:5">
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:5">
@@ -1352,27 +1404,30 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY181" sqref="AY181"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="8" t="s">
+    <row r="2" spans="2:3" ht="27.75">
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/python.xlsx
+++ b/python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39A7B02-047C-4230-B762-956BE6819AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483BE5D-4D3B-4340-94D1-D60011D1BF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pythonについて" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Pythonについて</t>
     <phoneticPr fontId="1"/>
@@ -250,19 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ライブラリがあるため、実際にコーディング自体は３行でダウンロードできる。</t>
-    <rPh sb="11" eb="13">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://github.com/banban-git/python</t>
   </si>
   <si>
@@ -361,27 +348,6 @@
     <t>３. 機械学習について</t>
   </si>
   <si>
-    <t>機械学習とは、</t>
-    <rPh sb="0" eb="2">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実践してみた</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://github.com/banban-git/python/blob/master/src/game/tetris/%E4%B8%A6%E3%81%B3%E6%9B%BF%E3%81%88%E3%82%A2%E3%83%AB%E3%82%B4%E3%83%AA%E3%82%BA%E3%83%A0.xlsx</t>
   </si>
   <si>
@@ -395,6 +361,263 @@
     <rPh sb="13" eb="14">
       <t>ナカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ: google_images_download</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ：youtube-dl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→コーディング自体は３行でダウンロードできる。</t>
+    <rPh sb="7" eb="9">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピューターがデータから反復的に学習を行うことで、パターン・特徴などを見つけ出し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TensorFlow（テンソルフロー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未知のデータに対して予想できるようになる技術の事。</t>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）機械学習とは</t>
+    <rPh sb="2" eb="4">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②りんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①みかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何回も反復して覚える</t>
+    <rPh sb="0" eb="2">
+      <t>ナンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　この画像①、②を反復して</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンプク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　覚えなさい!!!</t>
+    <rPh sb="1" eb="2">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２つとも覚えたの？</t>
+    <rPh sb="4" eb="5">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはなんでしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みかんです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みかん、りんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みかん、りんご。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）使用するライブラリ</t>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> → 機械学習のソフトウェアライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3) 画像分類実践</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4) どんな時に使われるか</t>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像分類は、主に画像の内容が近いものの場合によく使用される。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なので今回は、このデータで実践</t>
+    <rPh sb="3" eb="5">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データが近いものの例、ここに書く</t>
+    <rPh sb="4" eb="5">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工すみ、加工していない</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①データ収集</t>
+    <rPh sb="4" eb="6">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②PCに機械が学習をさせる</t>
+    <rPh sb="4" eb="6">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③PCに判定させる</t>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそ松さん　</t>
+    <rPh sb="2" eb="3">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://osomatsusan.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPSについて</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,7 +625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,19 +722,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="17"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -529,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -537,12 +769,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -555,7 +947,25 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -630,14 +1040,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>32003</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -681,13 +1091,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>123264</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>129988</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>141995</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>74759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -716,7 +1126,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="829235" y="15049501"/>
+          <a:off x="829235" y="15710647"/>
           <a:ext cx="7772400" cy="791935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -829,6 +1239,1134 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66763</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B7877E-C0AA-4F11-B0C4-D6DB957768B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="2085975"/>
+          <a:ext cx="628738" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200093</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4A6358-7B26-438D-A4F7-0A380A9D16DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="2695575"/>
+          <a:ext cx="485843" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628738" cy="543001"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED47FE9A-B914-43B6-AA05-C2265D30DF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="5162550"/>
+          <a:ext cx="628738" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66763</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>195301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98CC10A-3EE4-4E92-A129-005D47C685E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1971763" y="5076825"/>
+          <a:ext cx="1371512" cy="357226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66763</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>195301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DBB88C-38EB-4851-BDBC-27EB87D7C6E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971763" y="5434051"/>
+          <a:ext cx="1352462" cy="795299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矢印: 下 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5633FC4D-ED7B-4924-B39A-3E1AF920ACDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="4181475"/>
+          <a:ext cx="419100" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228881</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09E9686-F108-4C1B-8C40-37F7697F1A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="2209800"/>
+          <a:ext cx="2010056" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>281</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B916DC15-F71B-47CF-AD2B-256AC86EA23B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="4829175"/>
+          <a:ext cx="2010056" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133649</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A297BC-0135-4CB4-87F7-1A4D8255E5CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="3438525"/>
+          <a:ext cx="2143424" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133649</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>181051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95016D14-F5CF-4E71-BA16-23F42F66782A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="6067425"/>
+          <a:ext cx="2143424" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628738" cy="543001"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B769BC5-E72A-4F45-B36C-AE54B30444D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="8067675"/>
+          <a:ext cx="628738" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66763</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99785244-56BD-4538-A093-5721A7E4C5DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1971763" y="7981950"/>
+          <a:ext cx="1371512" cy="357226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66763</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41699DD-3871-4181-AD68-6B723039B0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971763" y="8339176"/>
+          <a:ext cx="1352462" cy="795299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矢印: 下 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106985C2-4E29-4E96-9866-69985CA84EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="4181475"/>
+          <a:ext cx="419100" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76268</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1C6C31-8023-4FC0-A59D-745EEE5BDFB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="8658225"/>
+          <a:ext cx="485843" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47906</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E0E996-DFFF-4656-BE45-B222A0F2FD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="7696200"/>
+          <a:ext cx="2010056" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200324</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4292C03-FC41-4EE6-945D-088FC3123012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="8896350"/>
+          <a:ext cx="2143424" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628738" cy="543001"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5319604-5A06-4BF2-8D57-DB550EA842A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="10858500"/>
+          <a:ext cx="628738" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485843" cy="600159"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B626B2-DDE2-47CA-AE96-9BC8A57B8DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="10706100"/>
+          <a:ext cx="485843" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>49741</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B459059-51F8-4E07-8DD3-513BC80D1BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="68823" t="48083" r="16534" b="33370"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="10877549"/>
+          <a:ext cx="1735666" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矢印: 下 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C1AB60-A0E6-4532-B7B7-B98292C4AFCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="9782175"/>
+          <a:ext cx="419100" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>213940</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48B4BE7-84EE-4E2D-A076-FFAC05B63A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152523" y="15487650"/>
+          <a:ext cx="3823917" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1141,9 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
@@ -1187,36 +2723,33 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="C2:D64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24.75">
+    <row r="2" spans="3:4" ht="24.75">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="3:4">
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="3:4">
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="3:4">
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1227,46 +2760,58 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="3:4">
-      <c r="D28" s="1" t="s">
+    <row r="28" spans="3:4" ht="19.5">
+      <c r="C28" s="6"/>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
-      <c r="D51" s="3" t="s">
+    <row r="52" spans="3:4">
+      <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:4">
-      <c r="D52" s="5" t="s">
+    <row r="53" spans="3:4">
+      <c r="D53" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
-      <c r="D53" s="5"/>
-    </row>
-    <row r="56" spans="3:4" ht="19.5">
-      <c r="C56" s="6"/>
-    </row>
-    <row r="60" spans="3:4" ht="19.5">
-      <c r="C60" s="6" t="s">
+    <row r="54" spans="3:4">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="57" spans="3:4" ht="19.5">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="61" spans="3:4" ht="19.5">
+      <c r="C61" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
-      <c r="D61" s="7" t="s">
-        <v>14</v>
+    <row r="62" spans="3:4" ht="19.5">
+      <c r="C62" s="6"/>
+      <c r="D62" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="D63" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="D64" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D61" r:id="rId1" xr:uid="{25A2E738-E9B4-458D-92A8-8A895E19A310}"/>
+    <hyperlink ref="D64" r:id="rId1" xr:uid="{C6DB04F2-53D7-4DA7-883C-16C1FD75B780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1278,9 +2823,9 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:U28"/>
+  <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
@@ -1290,54 +2835,63 @@
     <row r="2" spans="2:4" ht="24.75">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:21">
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="3:21">
       <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="D22" s="28" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21">
-      <c r="D22" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:21">
       <c r="S24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="3:21">
       <c r="T25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="3:21">
       <c r="T26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21">
+      <c r="T27" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="U28" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="U28" s="28"/>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="T29" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1352,10 +2906,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="C2:E17"/>
+  <dimension ref="C2:AA82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -1363,39 +2917,1137 @@
     <col min="1" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:27">
       <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27">
       <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="1">
-        <v>3</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27">
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27">
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27">
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27">
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="21"/>
+    </row>
+    <row r="10" spans="3:27">
+      <c r="F10" s="22"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="23"/>
+    </row>
+    <row r="11" spans="3:27">
+      <c r="F11" s="22"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="23"/>
+    </row>
+    <row r="12" spans="3:27">
+      <c r="F12" s="22"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="23"/>
+    </row>
+    <row r="13" spans="3:27">
+      <c r="F13" s="22"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="23"/>
+    </row>
+    <row r="14" spans="3:27">
+      <c r="F14" s="22"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="23"/>
+    </row>
+    <row r="15" spans="3:27">
+      <c r="F15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="23"/>
+    </row>
+    <row r="16" spans="3:27">
+      <c r="F16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="23"/>
+    </row>
+    <row r="17" spans="6:27">
+      <c r="F17" s="22"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="23"/>
+    </row>
+    <row r="18" spans="6:27">
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="26"/>
+    </row>
+    <row r="20" spans="6:27">
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="21"/>
+    </row>
+    <row r="21" spans="6:27">
+      <c r="F21" s="22"/>
+      <c r="G21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="23"/>
+    </row>
+    <row r="22" spans="6:27">
+      <c r="F22" s="22"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="23"/>
+    </row>
+    <row r="23" spans="6:27">
+      <c r="F23" s="22"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="23"/>
+    </row>
+    <row r="24" spans="6:27">
+      <c r="F24" s="22"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="23"/>
+    </row>
+    <row r="25" spans="6:27">
+      <c r="F25" s="22"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="23"/>
+    </row>
+    <row r="26" spans="6:27">
+      <c r="F26" s="22"/>
+      <c r="G26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="23"/>
+    </row>
+    <row r="27" spans="6:27">
+      <c r="F27" s="22"/>
+      <c r="G27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="23"/>
+    </row>
+    <row r="28" spans="6:27">
+      <c r="F28" s="22"/>
+      <c r="G28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="23"/>
+    </row>
+    <row r="29" spans="6:27">
+      <c r="F29" s="22"/>
+      <c r="G29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="23"/>
+    </row>
+    <row r="30" spans="6:27">
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="26"/>
+    </row>
+    <row r="33" spans="6:27">
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="21"/>
+    </row>
+    <row r="34" spans="6:27">
+      <c r="F34" s="22"/>
+      <c r="G34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="23"/>
+    </row>
+    <row r="35" spans="6:27">
+      <c r="F35" s="22"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="23"/>
+    </row>
+    <row r="36" spans="6:27">
+      <c r="F36" s="22"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="23"/>
+    </row>
+    <row r="37" spans="6:27">
+      <c r="F37" s="22"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="23"/>
+    </row>
+    <row r="38" spans="6:27">
+      <c r="F38" s="22"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="23"/>
+    </row>
+    <row r="39" spans="6:27">
+      <c r="F39" s="22"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="23"/>
+    </row>
+    <row r="40" spans="6:27">
+      <c r="F40" s="22"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="23"/>
+    </row>
+    <row r="41" spans="6:27">
+      <c r="F41" s="22"/>
+      <c r="G41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="23"/>
+    </row>
+    <row r="42" spans="6:27">
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="26"/>
+    </row>
+    <row r="45" spans="6:27">
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="21"/>
+    </row>
+    <row r="46" spans="6:27">
+      <c r="F46" s="22"/>
+      <c r="G46" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="23"/>
+    </row>
+    <row r="47" spans="6:27">
+      <c r="F47" s="22"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="23"/>
+    </row>
+    <row r="48" spans="6:27">
+      <c r="F48" s="22"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="23"/>
+    </row>
+    <row r="49" spans="4:27">
+      <c r="F49" s="22"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="23"/>
+    </row>
+    <row r="50" spans="4:27">
+      <c r="F50" s="22"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="23"/>
+    </row>
+    <row r="51" spans="4:27">
+      <c r="F51" s="22"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="23"/>
+    </row>
+    <row r="52" spans="4:27">
+      <c r="F52" s="22"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="23"/>
+    </row>
+    <row r="53" spans="4:27">
+      <c r="F53" s="22"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="23"/>
+    </row>
+    <row r="54" spans="4:27">
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="26"/>
+    </row>
+    <row r="56" spans="4:27">
+      <c r="D56" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="4:27">
+      <c r="E57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="4:27">
+      <c r="E58" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="4:27">
+      <c r="D60" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="4:27">
+      <c r="E61" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="4:27">
+      <c r="E62" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="4:27">
+      <c r="E63" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="4:27">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="4:9">
+      <c r="E65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="4:9">
+      <c r="E75" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="4:9">
+      <c r="E76" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="4:9">
+      <c r="E77" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="4:9">
+      <c r="D80" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="I65" r:id="rId1" xr:uid="{922BF05A-7CFB-4235-8980-C13EC95A8349}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1406,7 +4058,7 @@
   </sheetPr>
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
@@ -1414,13 +4066,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="27.75">
-      <c r="B2" s="10" t="s">
-        <v>31</v>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1428,7 +4080,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/python.xlsx
+++ b/python.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483BE5D-4D3B-4340-94D1-D60011D1BF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B4A804-D4C6-4A8D-A797-067B27731961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pythonについて" sheetId="1" r:id="rId1"/>
     <sheet name="1. ライブラリ" sheetId="2" r:id="rId2"/>
-    <sheet name="２. ゲームエンジン　pyxelについて" sheetId="3" r:id="rId3"/>
-    <sheet name="３. 機械学習について" sheetId="4" r:id="rId4"/>
+    <sheet name="２. 機械学習について" sheetId="4" r:id="rId3"/>
+    <sheet name="３. 自動化（Tesseract、pyautogui）について" sheetId="6" r:id="rId4"/>
     <sheet name="参考までに" sheetId="5" r:id="rId5"/>
+    <sheet name="時間があれば。。" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
   <si>
     <t>Pythonについて</t>
     <phoneticPr fontId="1"/>
@@ -52,16 +53,6 @@
   </si>
   <si>
     <t>1. ライブラリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３. 機械学習について</t>
-    <rPh sb="3" eb="5">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガクシュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -156,17 +147,289 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コマンド　20枚の『炭治郎』の画像を自動で収集する</t>
+    <t>②YouTubeの動画をダウンロードするライブラリ</t>
+    <rPh sb="9" eb="11">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/banban-git/python/blob/master/src/youtube/youtube_download.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/banban-git/python</t>
+  </si>
+  <si>
+    <t>Pyxelとは、レトロな２Dゲームが作れるPythonライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ドット絵も、作成可能</t>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.音楽音楽も、作成可能</t>
+    <rPh sb="2" eb="4">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→　テトリスを今回作ってみました。</t>
+    <rPh sb="7" eb="9">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/banban-git/python/blob/master/src/game/tetris/tetris.py</t>
+  </si>
+  <si>
+    <t>ビット演算処理</t>
+    <rPh sb="3" eb="5">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列を回転させる処理等、結構参考になるのでロジックを理解する価値はあり</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テトリスアルゴリズム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/banban-git/python/blob/master/src/game/tetris/%E4%B8%A6%E3%81%B3%E6%9B%BF%E3%81%88%E3%82%A2%E3%83%AB%E3%82%B4%E3%83%AA%E3%82%BA%E3%83%A0.xlsx</t>
+  </si>
+  <si>
+    <t>参考までに</t>
+  </si>
+  <si>
+    <t>githubでソースは公開中</t>
+    <rPh sb="11" eb="13">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ: google_images_download</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ：youtube-dl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→コーディング自体は３行でダウンロードできる。</t>
+    <rPh sb="7" eb="9">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピューターがデータから反復的に学習を行うことで、パターン・特徴などを見つけ出し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TensorFlow（テンソルフロー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未知のデータに対して予想できるようになる技術の事。</t>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）機械学習とは</t>
+    <rPh sb="2" eb="4">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②りんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①みかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何回も反復して覚える</t>
+    <rPh sb="0" eb="2">
+      <t>ナンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンプク</t>
+    </rPh>
     <rPh sb="7" eb="8">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　この画像①、②を反復して</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンプク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　覚えなさい!!!</t>
+    <rPh sb="1" eb="2">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２つとも覚えたの？</t>
+    <rPh sb="4" eb="5">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはなんでしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みかんです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みかん、りんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みかん、りんご。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）使用するライブラリ</t>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> → 機械学習のソフトウェアライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3) 画像分類実践</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③PCに判定させる</t>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPSについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド　100枚の『炭治郎』の画像を自動で収集する</t>
+    <rPh sb="8" eb="9">
       <t>マイ</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="16" eb="18">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="19" eb="21">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="22" eb="24">
       <t>シュウシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -190,7 +453,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
@@ -222,7 +485,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>--limit 20</t>
+      <t>--limit 100</t>
     </r>
     <r>
       <rPr>
@@ -230,294 +493,533 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> --download --chromedriver chromedriver</t>
+      <t xml:space="preserve"> --download --chromedriver chromedriver/chromedriver.exe</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２. ゲームエンジン　pyxelについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②YouTubeの動画をダウンロードするライブラリ</t>
+    <t>２. 機械学習について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タピオカ、カエルの卵、チアシード</t>
+    <rPh sb="9" eb="10">
+      <t>タマゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ネットでの検証例</t>
+    <rPh sb="6" eb="8">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①データをスクレイピングを使って収集</t>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://osomatsusan.com/character/#osomatsu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤塚不二夫のギャグ漫画　『おそ松さん』</t>
+    <rPh sb="0" eb="2">
+      <t>アカツカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>フジオ</t>
+    </rPh>
     <rPh sb="9" eb="11">
-      <t>ドウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://github.com/banban-git/python/blob/master/src/youtube/youtube_download.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://github.com/banban-git/python</t>
-  </si>
-  <si>
-    <t>Pyxelとは、レトロな２Dゲームが作れるPythonライブラリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２. ゲームエンジン　pyxelについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ドット絵も、作成可能</t>
+      <t>マンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→顔が似ているので、今回の検証に使う</t>
+    <rPh sb="1" eb="2">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①おそ松</t>
+    <rPh sb="3" eb="4">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②カラ松</t>
+    <rPh sb="3" eb="4">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>python retrain.py --bottleneck_dir=bottlenecks --how_many_training_steps=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --model_dir=inception --summaries_dir=training_summaries/basic --output_graph=retrained_graph.pb --output_labels=retrained_labels.txt --image_dir=images</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>② ①で取得した画像をPCに覚えさせる。今回は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１００００回学習させる（学習回数は多いほど正確に判定できる。）</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚ずつ、画像を判定する。</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/ikemkt/ai-119187344</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4)ビジネスではどんな時に使われるか</t>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③チョロ松</t>
+    <rPh sb="4" eb="5">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーサイヤ人、スーパーサイヤ人２、スーパーサイヤ人３、スーパーサイヤ人４</t>
+    <rPh sb="7" eb="8">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④一松</t>
+    <rPh sb="1" eb="3">
+      <t>イチマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥トド松</t>
+    <rPh sb="3" eb="4">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそ松、カラ松、チョロ松、一松、十四松、トド松</t>
+    <rPh sb="2" eb="3">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジュウヨン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは誰でしょうか？</t>
+    <rPh sb="3" eb="4">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000回、反復して覚える</t>
     <rPh sb="5" eb="6">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.音楽音楽も、作成可能</t>
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤十四松</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウヨン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２. 機械学習について</t>
+    <rPh sb="3" eb="5">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tesseract は、オープンソースの OCR エンジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「OCR」とは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画像ファイル中の文字を、テキストファイルとして読み込む技術</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のこと</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1) Tesseract（テッセラクト）とは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この画像なんて書いてある？</t>
     <rPh sb="2" eb="4">
-      <t>オンガク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オンガク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→　テトリスを今回作ってみました。</t>
-    <rPh sb="7" eb="9">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://github.com/banban-git/python/blob/master/src/game/tetris/tetris.py</t>
-  </si>
-  <si>
-    <t>ビット演算処理</t>
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社</t>
+    <rPh sb="0" eb="2">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アローインフォメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と書いてあります！</t>
+    <rPh sb="1" eb="2">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３. 自動化（Tesseract、pyautogui）について</t>
     <rPh sb="3" eb="5">
-      <t>エンザン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配列を回転させる処理等、結構参考になるのでロジックを理解する価値はあり</t>
-    <rPh sb="0" eb="2">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケッコウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>リカイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テトリスアルゴリズム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３. 機械学習について</t>
-  </si>
-  <si>
-    <t>https://github.com/banban-git/python/blob/master/src/game/tetris/%E4%B8%A6%E3%81%B3%E6%9B%BF%E3%81%88%E3%82%A2%E3%83%AB%E3%82%B4%E3%83%AA%E3%82%BA%E3%83%A0.xlsx</t>
-  </si>
-  <si>
-    <t>参考までに</t>
-  </si>
-  <si>
-    <t>githubでソースは公開中</t>
-    <rPh sb="11" eb="13">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライブラリ: google_images_download</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライブラリ：youtube-dl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→コーディング自体は３行でダウンロードできる。</t>
-    <rPh sb="7" eb="9">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンピューターがデータから反復的に学習を行うことで、パターン・特徴などを見つけ出し</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TensorFlow（テンソルフロー）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未知のデータに対して予想できるようになる技術の事。</t>
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３. 自動化（Tesseract、pyautogui）について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2) pyautogui とは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスやキーボードを自動操作できるライブラリの事</t>
     <rPh sb="23" eb="24">
       <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１）機械学習とは</t>
-    <rPh sb="2" eb="4">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②りんご</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①みかん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>何回も反復して覚える</t>
+    <t>実践</t>
     <rPh sb="0" eb="2">
-      <t>ナンカイ</t>
+      <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ帳にHelloWorldを書くプログラム</t>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）、２）の技術を使って寿司打を自動で実行する</t>
+    <rPh sb="6" eb="8">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3) タイピングゲーム『寿司打』自動入力プログラム</t>
+    <rPh sb="12" eb="14">
+      <t>スシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lineの文字認識</t>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/banban-git/python/blob/master/src/sushida/sushida.py</t>
+  </si>
+  <si>
+    <t>自動化プログラム</t>
+    <rPh sb="0" eb="3">
+      <t>ジドウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工済写真、無加工</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ハンプク</t>
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ムカコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://typingx0.net/sushida/play.html</t>
+  </si>
+  <si>
+    <t>4. ゲームエンジン　pyxelについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・きゅうりの大きさを自動分別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4)どんな時に使われるか</t>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>オボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　この画像①、②を反復して</t>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンプク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　覚えなさい!!!</t>
-    <rPh sb="1" eb="2">
-      <t>オボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>はい！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２つとも覚えたの？</t>
-    <rPh sb="4" eb="5">
-      <t>オボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これはなんでしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みかんです！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みかん、りんご</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みかん、りんご。。。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２）使用するライブラリ</t>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> → 機械学習のソフトウェアライブラリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3) 画像分類実践</t>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4) どんな時に使われるか</t>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
       <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像分類は、主に画像の内容が近いものの場合によく使用される。</t>
+    <r>
+      <t xml:space="preserve">python label_image.py --graph=retrained_graph.pb --labels=retrained_labels.txt --output_layer=final_result </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--image=images_test/hanbetu7.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --input_layer=Placeholder</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像分類は、主にデータが近いものを分類して使用される。</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
@@ -527,97 +1029,34 @@
     <rPh sb="6" eb="7">
       <t>オモ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="12" eb="13">
       <t>チカ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="17" eb="19">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なので今回は、このデータで実践</t>
-    <rPh sb="3" eb="5">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データが近いものの例、ここに書く</t>
-    <rPh sb="4" eb="5">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きゅうり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加工すみ、加工していない</t>
-    <rPh sb="0" eb="2">
-      <t>カコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①データ収集</t>
-    <rPh sb="4" eb="6">
-      <t>シュウシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②PCに機械が学習をさせる</t>
-    <rPh sb="4" eb="6">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③PCに判定させる</t>
-    <rPh sb="4" eb="6">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おそ松さん　</t>
-    <rPh sb="2" eb="3">
-      <t>マツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://osomatsusan.com/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FPSについて</t>
+    <t>500円の皿が、９９枚を超えて想定外のエラーになりました。。</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ソウテイガイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -625,7 +1064,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,14 +1137,6 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -742,6 +1173,45 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -932,9 +1402,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -944,9 +1414,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -964,8 +1434,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1140,105 +1614,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>148636</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>46314</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93566DC7-DFFA-440F-A8C5-D787CBD9D3DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="694764" y="6342531"/>
-          <a:ext cx="3219048" cy="6019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>170379</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>131510</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2FDC8D-3514-4EE7-91A7-94017ED1E256}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="739588" y="862853"/>
-          <a:ext cx="4372585" cy="2876951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2073,15 +2448,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>200324</xdr:colOff>
+      <xdr:colOff>133649</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>152476</xdr:rowOff>
+      <xdr:rowOff>142951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2110,7 +2485,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3533775" y="8896350"/>
+          <a:off x="3467100" y="9124950"/>
           <a:ext cx="2143424" cy="543001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2123,9 +2498,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628738" cy="543001"/>
     <xdr:pic>
@@ -2155,7 +2530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438275" y="10858500"/>
+          <a:off x="1466850" y="11049000"/>
           <a:ext cx="628738" cy="543001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2363,6 +2738,1070 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628738" cy="543001"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2494B089-4F71-47F0-9B04-388070FE2881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="5162550"/>
+          <a:ext cx="628738" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66763</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>195301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FEA44C-804C-4150-AA17-0C6D92F86784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1971763" y="5076825"/>
+          <a:ext cx="1371512" cy="357226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66763</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>195301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486BAE96-1E8A-4DCA-9081-B927BC254512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971763" y="5434051"/>
+          <a:ext cx="1352462" cy="795299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673043EB-B16B-405C-8900-1F74E7F2DCC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381376" y="19802476"/>
+          <a:ext cx="628649" cy="628649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED4BCDF-9238-49E8-98D4-DEFBD35AEEE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314826" y="20021551"/>
+          <a:ext cx="676274" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>210317</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BABF253-A13F-42C7-8229-CCE34C71C05E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="26278" t="18978" r="24818" b="35766"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="20059651"/>
+          <a:ext cx="648467" cy="600074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>214804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D25E5C8-EBAB-40DB-A765-A42F0D338B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25613" t="13848" r="24632" b="29534"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381376" y="21212175"/>
+          <a:ext cx="590550" cy="672004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>222553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCF988C-D5A3-4AE0-89B2-700DDF6D9DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="32110" t="11398" r="32841" b="58265"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333876" y="21231225"/>
+          <a:ext cx="609599" cy="660703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>232476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1CD7ED-3ED5-4EA7-A83D-F7B90DEA57C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="58457" t="2479" r="5392" b="54126"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295899" y="21240751"/>
+          <a:ext cx="619126" cy="661100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628738" cy="543001"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC042436-AD0E-46EB-9F1E-338536C3F834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="11049000"/>
+          <a:ext cx="628738" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485843" cy="600159"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A913CF62-4D5F-40AA-A396-F6CC8104B752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="10944225"/>
+          <a:ext cx="485843" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DD387D-F04A-4C89-933C-4B0CF3756E28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="25060275"/>
+          <a:ext cx="1619250" cy="1543685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>131909</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>200683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C92C0E-FE6F-473C-BB0F-BD6FB7462A95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="986118" y="15161558"/>
+          <a:ext cx="5734850" cy="704948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66763</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A825C06A-E535-4838-A9C6-9E2AD6784871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="2495550"/>
+          <a:ext cx="628738" cy="543000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>143181</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E431AC-E51F-4AB5-ACD7-B0422C309D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3389779" y="2640106"/>
+          <a:ext cx="2165843" cy="432608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57218</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060A6979-F6B3-4783-B221-A9E6BB91ABFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="3257550"/>
+          <a:ext cx="485843" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>234203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>20081</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8ED2D04-122E-4508-81CB-49ABFEA7F316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="366" t="9205"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="963706" y="10722909"/>
+          <a:ext cx="7292699" cy="3542179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>37634</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62600262-73C3-4190-9670-70CC32E64D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="974910" y="7451913"/>
+          <a:ext cx="3769195" cy="3115234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE5791E-FEBF-49D1-A12E-AAA19FF2F4D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5065059" y="15296029"/>
+          <a:ext cx="392206" cy="336177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF085E1-B2EE-4BD1-9A32-B88D07C47D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3372970" y="10679206"/>
+          <a:ext cx="2566147" cy="1176617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>179292</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B80DC6-065F-4AB8-B1C6-0ADA13114B43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="30665" t="32325" r="32469" b="10945"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5356410" y="7507943"/>
+          <a:ext cx="3742765" cy="3069416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2403,6 +3842,105 @@
         <a:xfrm>
           <a:off x="280147" y="941295"/>
           <a:ext cx="12969183" cy="41999646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>148636</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>46314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93566DC7-DFFA-440F-A8C5-D787CBD9D3DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694764" y="6342531"/>
+          <a:ext cx="3219048" cy="6019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>170379</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2FDC8D-3514-4EE7-91A7-94017ED1E256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739588" y="862853"/>
+          <a:ext cx="4372585" cy="2876951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2679,7 +4217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2703,12 +4241,12 @@
     </row>
     <row r="7" spans="3:5">
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2725,9 +4263,7 @@
   </sheetPr>
   <dimension ref="C2:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
@@ -2741,44 +4277,44 @@
     </row>
     <row r="3" spans="3:4">
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="24">
       <c r="C27" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="3:4" ht="19.5">
       <c r="C28" s="6"/>
       <c r="D28" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="D52" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="D53" s="5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="3:4">
@@ -2789,23 +4325,23 @@
     </row>
     <row r="61" spans="3:4" ht="19.5">
       <c r="C61" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="19.5">
       <c r="C62" s="6"/>
       <c r="D62" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="3:4">
       <c r="D64" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2814,103 +4350,19 @@
     <hyperlink ref="D64" r:id="rId1" xr:uid="{C6DB04F2-53D7-4DA7-883C-16C1FD75B780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FBBE8F-F440-4DB3-AC23-62B1DD21A82B}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B2:U29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="3.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="24.75">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21">
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21">
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21">
-      <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21">
-      <c r="D22" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21">
-      <c r="S24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="3:21">
-      <c r="T25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="3:21">
-      <c r="T26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21">
-      <c r="T27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21">
-      <c r="U28" s="28"/>
-    </row>
-    <row r="29" spans="3:21">
-      <c r="T29" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="U29" s="28"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24A6119-EBFD-4D04-AA37-1F7EF62B69D3}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="C2:AA82"/>
+  <dimension ref="C2:AD122"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
@@ -2919,33 +4371,33 @@
   <sheetData>
     <row r="2" spans="3:27">
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="3:27">
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:27">
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="3:27">
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:27">
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="3:27">
       <c r="F9" s="19"/>
       <c r="G9" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -2955,7 +4407,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
@@ -3077,7 +4529,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -3094,7 +4546,7 @@
     </row>
     <row r="15" spans="3:27">
       <c r="F15" s="22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -3120,7 +4572,7 @@
     </row>
     <row r="16" spans="3:27">
       <c r="F16" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -3203,7 +4655,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
@@ -3221,7 +4673,7 @@
     <row r="21" spans="6:27">
       <c r="F21" s="22"/>
       <c r="G21" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -3327,7 +4779,7 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
@@ -3345,7 +4797,7 @@
     <row r="26" spans="6:27">
       <c r="F26" s="22"/>
       <c r="G26" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -3371,7 +4823,7 @@
     <row r="27" spans="6:27">
       <c r="F27" s="22"/>
       <c r="G27" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -3397,7 +4849,7 @@
     <row r="28" spans="6:27">
       <c r="F28" s="22"/>
       <c r="G28" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -3423,7 +4875,7 @@
     <row r="29" spans="6:27">
       <c r="F29" s="22"/>
       <c r="G29" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -3481,7 +4933,7 @@
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
@@ -3499,7 +4951,7 @@
     <row r="34" spans="6:27">
       <c r="F34" s="22"/>
       <c r="G34" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -3526,7 +4978,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -3606,7 +5058,9 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="O38" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
@@ -3671,7 +5125,7 @@
     <row r="41" spans="6:27">
       <c r="F41" s="22"/>
       <c r="G41" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -3745,7 +5199,7 @@
     <row r="46" spans="6:27">
       <c r="F46" s="22"/>
       <c r="G46" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -3756,7 +5210,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
@@ -3845,9 +5299,7 @@
     <row r="50" spans="4:27">
       <c r="F50" s="22"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="27" t="s">
-        <v>46</v>
-      </c>
+      <c r="H50" s="27"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
@@ -3871,7 +5323,9 @@
     <row r="51" spans="4:27">
       <c r="F51" s="22"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
@@ -3966,88 +5420,1199 @@
     </row>
     <row r="56" spans="4:27">
       <c r="D56" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="4:27">
       <c r="E57" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="4:27">
       <c r="E58" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="4:27">
       <c r="D60" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="4:27">
       <c r="E61" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="4:27">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="4:27">
+      <c r="E63" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="4:27">
+      <c r="E64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="5:9">
+      <c r="F65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="75" spans="5:9">
+      <c r="E75" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="4:27">
-      <c r="E62" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="4:27">
-      <c r="E63" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="4:27">
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="4:9">
-      <c r="E65" s="3" t="s">
+    <row r="78" spans="5:9">
+      <c r="E78" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I65" s="7" t="s">
+    </row>
+    <row r="79" spans="5:9">
+      <c r="F79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="5:30">
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="21"/>
+    </row>
+    <row r="83" spans="5:30">
+      <c r="F83" s="22"/>
+      <c r="G83" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="11"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="14"/>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="23"/>
+    </row>
+    <row r="84" spans="5:30">
+      <c r="F84" s="22"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="14"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="14"/>
+      <c r="AC84" s="14"/>
+      <c r="AD84" s="23"/>
+    </row>
+    <row r="85" spans="5:30">
+      <c r="F85" s="22"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="18"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="18"/>
+      <c r="AB85" s="14"/>
+      <c r="AC85" s="14"/>
+      <c r="AD85" s="23"/>
+    </row>
+    <row r="86" spans="5:30">
+      <c r="F86" s="22"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="14"/>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="14"/>
+      <c r="AC86" s="14"/>
+      <c r="AD86" s="23"/>
+    </row>
+    <row r="87" spans="5:30">
+      <c r="F87" s="22"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="14"/>
+      <c r="U87" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V87" s="14"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z87" s="14"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="14"/>
+      <c r="AC87" s="14"/>
+      <c r="AD87" s="23"/>
+    </row>
+    <row r="88" spans="5:30">
+      <c r="F88" s="22"/>
+      <c r="G88" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="14"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="11"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="14"/>
+      <c r="AC88" s="14"/>
+      <c r="AD88" s="23"/>
+    </row>
+    <row r="89" spans="5:30">
+      <c r="F89" s="22"/>
+      <c r="G89" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="14"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="14"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="13"/>
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="15"/>
+      <c r="AB89" s="14"/>
+      <c r="AC89" s="14"/>
+      <c r="AD89" s="23"/>
+    </row>
+    <row r="90" spans="5:30">
+      <c r="F90" s="22"/>
+      <c r="G90" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="14"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="16"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="18"/>
+      <c r="AB90" s="14"/>
+      <c r="AC90" s="14"/>
+      <c r="AD90" s="23"/>
+    </row>
+    <row r="91" spans="5:30">
+      <c r="F91" s="22"/>
+      <c r="G91" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="14"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="14"/>
+      <c r="Z91" s="14"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="14"/>
+      <c r="AC91" s="14"/>
+      <c r="AD91" s="23"/>
+    </row>
+    <row r="92" spans="5:30">
+      <c r="F92" s="24"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+      <c r="V92" s="25"/>
+      <c r="W92" s="25"/>
+      <c r="X92" s="25"/>
+      <c r="Y92" s="25"/>
+      <c r="Z92" s="25"/>
+      <c r="AA92" s="25"/>
+      <c r="AB92" s="25"/>
+      <c r="AC92" s="25"/>
+      <c r="AD92" s="26"/>
+    </row>
+    <row r="93" spans="5:30">
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="14"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="14"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="14"/>
+      <c r="Z93" s="14"/>
+      <c r="AA93" s="14"/>
+    </row>
+    <row r="94" spans="5:30">
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="14"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="14"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="14"/>
+      <c r="Z94" s="14"/>
+      <c r="AA94" s="14"/>
+    </row>
+    <row r="95" spans="5:30">
+      <c r="F95" s="29"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="14"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="14"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
+      <c r="AA95" s="14"/>
+    </row>
+    <row r="96" spans="5:30">
+      <c r="E96" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="4:27">
+      <c r="F97" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="4:9">
-      <c r="E75" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="4:9">
-      <c r="E76" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="4:9">
-      <c r="E77" s="1" t="s">
+    <row r="98" spans="4:27">
+      <c r="F98" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="4:9">
-      <c r="D80" s="1" t="s">
+      <c r="I98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="4:27">
+      <c r="F100" s="19"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="20"/>
+      <c r="W100" s="20"/>
+      <c r="X100" s="20"/>
+      <c r="Y100" s="20"/>
+      <c r="Z100" s="20"/>
+      <c r="AA100" s="21"/>
+    </row>
+    <row r="101" spans="4:27">
+      <c r="F101" s="22"/>
+      <c r="G101" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q101" s="14"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="14"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="14"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="14"/>
+      <c r="Z101" s="14"/>
+      <c r="AA101" s="23"/>
+    </row>
+    <row r="102" spans="4:27">
+      <c r="F102" s="22"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="14"/>
+      <c r="Z102" s="14"/>
+      <c r="AA102" s="23"/>
+    </row>
+    <row r="103" spans="4:27">
+      <c r="F103" s="22"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="14"/>
+      <c r="R103" s="14"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="14"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="14"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="14"/>
+      <c r="Z103" s="14"/>
+      <c r="AA103" s="23"/>
+    </row>
+    <row r="104" spans="4:27">
+      <c r="F104" s="22"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="14"/>
+      <c r="R104" s="14"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="14"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="14"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="14"/>
+      <c r="Z104" s="14"/>
+      <c r="AA104" s="23"/>
+    </row>
+    <row r="105" spans="4:27">
+      <c r="F105" s="22"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="14"/>
+      <c r="R105" s="14"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="14"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="14"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="14"/>
+      <c r="Z105" s="14"/>
+      <c r="AA105" s="23"/>
+    </row>
+    <row r="106" spans="4:27">
+      <c r="F106" s="22"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="14"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="14"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="14"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="14"/>
+      <c r="Z106" s="14"/>
+      <c r="AA106" s="23"/>
+    </row>
+    <row r="107" spans="4:27">
+      <c r="F107" s="22"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="14"/>
+      <c r="R107" s="14"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="14"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="14"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="14"/>
+      <c r="Z107" s="14"/>
+      <c r="AA107" s="23"/>
+    </row>
+    <row r="108" spans="4:27">
+      <c r="F108" s="22"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="18"/>
+      <c r="Y108" s="14"/>
+      <c r="Z108" s="14"/>
+      <c r="AA108" s="23"/>
+    </row>
+    <row r="109" spans="4:27">
+      <c r="F109" s="24"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="25"/>
+      <c r="U109" s="25"/>
+      <c r="V109" s="25"/>
+      <c r="W109" s="25"/>
+      <c r="X109" s="25"/>
+      <c r="Y109" s="25"/>
+      <c r="Z109" s="25"/>
+      <c r="AA109" s="26"/>
+    </row>
+    <row r="110" spans="4:27">
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
+      <c r="R110" s="14"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="14"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="14"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="14"/>
+      <c r="Y110" s="14"/>
+      <c r="Z110" s="14"/>
+      <c r="AA110" s="14"/>
+    </row>
+    <row r="111" spans="4:27">
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="14"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="14"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="14"/>
+      <c r="Z111" s="14"/>
+      <c r="AA111" s="14"/>
+    </row>
+    <row r="112" spans="4:27">
+      <c r="D112" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="5:15">
+      <c r="E113" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+    </row>
+    <row r="114" spans="5:15">
+      <c r="F114" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G114" s="7"/>
+    </row>
+    <row r="116" spans="5:15">
+      <c r="E116" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="6:6">
-      <c r="F81" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="117" spans="5:15">
+      <c r="F117" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="5:15">
+      <c r="F118" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="5:15">
+      <c r="F119" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="5:15">
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="5:15">
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="5:15">
+      <c r="F122" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I65" r:id="rId1" xr:uid="{922BF05A-7CFB-4235-8980-C13EC95A8349}"/>
+    <hyperlink ref="E64" r:id="rId1" location="osomatsu" xr:uid="{70CD95F5-3EEF-42B8-83FA-C2791CDA06FB}"/>
+    <hyperlink ref="F114" r:id="rId2" xr:uid="{B124A9EF-7EA6-4B0E-B2AD-EBD7E065A4E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A81C448-F079-4C6C-8100-3D21E37E1F52}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="C2:AK72"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:37" ht="24">
+      <c r="C2" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="3:37" ht="24">
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="3:37">
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="3:37">
+      <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="3:37">
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" s="3"/>
+    </row>
+    <row r="7" spans="3:37">
+      <c r="AK7" s="3"/>
+    </row>
+    <row r="8" spans="3:37">
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:37">
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="21"/>
+    </row>
+    <row r="10" spans="3:37">
+      <c r="E10" s="22"/>
+      <c r="F10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="23"/>
+    </row>
+    <row r="11" spans="3:37">
+      <c r="E11" s="22"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="23"/>
+    </row>
+    <row r="12" spans="3:37">
+      <c r="E12" s="22"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="23"/>
+    </row>
+    <row r="13" spans="3:37">
+      <c r="E13" s="22"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="23"/>
+    </row>
+    <row r="14" spans="3:37">
+      <c r="E14" s="22"/>
+      <c r="F14" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="23"/>
+    </row>
+    <row r="15" spans="3:37">
+      <c r="E15" s="22"/>
+      <c r="F15" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="23"/>
+    </row>
+    <row r="16" spans="3:37">
+      <c r="E16" s="22"/>
+      <c r="F16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="23"/>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="E17" s="22"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="23"/>
+    </row>
+    <row r="18" spans="4:27">
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="26"/>
+    </row>
+    <row r="21" spans="4:27">
+      <c r="D21" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="4:27">
+      <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27">
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27">
+      <c r="F25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27">
+      <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27">
+      <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="4:27">
+      <c r="E31" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="E72" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4067,12 +6632,12 @@
   <sheetData>
     <row r="2" spans="2:3" ht="27.75">
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -4080,7 +6645,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4088,4 +6653,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FBBE8F-F440-4DB3-AC23-62B1DD21A82B}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B2:U29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="24.75">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21">
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21">
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="D22" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="S24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="T25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="T26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21">
+      <c r="T27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21">
+      <c r="U28" s="28"/>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="T29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>